--- a/normsheet.xlsx
+++ b/normsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bloom/byte/cryptosabyss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBCC6C0-9CE6-CD4F-ACDC-9B9CEA7C039B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1545FC0-ADAE-DE4A-9075-24AC4E35E788}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="1780" windowWidth="22500" windowHeight="13980" xr2:uid="{15AAACA5-D026-824B-813D-472C9550E6BE}"/>
+    <workbookView xWindow="200" yWindow="860" windowWidth="22500" windowHeight="13980" xr2:uid="{15AAACA5-D026-824B-813D-472C9550E6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>Type</t>
   </si>
@@ -66,9 +66,6 @@
     <t>DIA</t>
   </si>
   <si>
-    <t>TLT</t>
-  </si>
-  <si>
     <t>UNG</t>
   </si>
   <si>
@@ -139,6 +136,45 @@
   </si>
   <si>
     <t>The investment seeks investment results that correspond generally to the price and yield (before the fund's fees and expenses) of an equity index called the Dow Jones Internet Composite Index (SM) (the "index"). The fund will normally invest at least 90% of its net assets (including investment borrowings) in common stocks that comprise the index. The index is designed to include only companies whose primary focus is Internet-related. To be eligible for inclusion in the index, a company must generate at least 50% of its revenues from Internet commerce or services. It is non-diversified.</t>
+  </si>
+  <si>
+    <t>SPDR Gold Shares</t>
+  </si>
+  <si>
+    <t>Russell 2000</t>
+  </si>
+  <si>
+    <t>Russell Top 200 Growth</t>
+  </si>
+  <si>
+    <t>Robotics &amp; Automation</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Dow Jones</t>
+  </si>
+  <si>
+    <t>US Natural Gas</t>
+  </si>
+  <si>
+    <t>US Oil</t>
+  </si>
+  <si>
+    <t>Vanguart I.T.</t>
+  </si>
+  <si>
+    <t>SPDR Energy</t>
+  </si>
+  <si>
+    <t>SPDR Utilities</t>
+  </si>
+  <si>
+    <t>SPDR Tech</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary</t>
   </si>
 </sst>
 </file>
@@ -497,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716B081A-6B3F-2B4F-8D68-104D908849D8}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -533,8 +569,11 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2">
+        <v>0.83630000000000004</v>
+      </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -548,7 +587,7 @@
         <v>0.68389999999999995</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -558,6 +597,12 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <v>0.42020000000000002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -566,6 +611,12 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -574,6 +625,12 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6">
+        <v>0.8175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -582,6 +639,12 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7">
+        <v>0.79569999999999996</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -590,6 +653,12 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -598,6 +667,12 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -606,6 +681,12 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10">
+        <v>-0.76939999999999997</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -614,6 +695,12 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -622,6 +709,9 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -630,6 +720,12 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13">
+        <v>0.64770000000000005</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -638,6 +734,12 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
+      <c r="C14">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -646,6 +748,12 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="C15">
+        <v>-0.1865</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -654,24 +762,36 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
+      <c r="C16">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18">
-        <v>0.81069999999999998</v>
+        <v>-0.80549999999999999</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
@@ -679,13 +799,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19">
-        <v>-0.80549999999999999</v>
+        <v>0.7661</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
@@ -693,13 +813,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20">
-        <v>0.7661</v>
+        <v>0.7641</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -707,113 +827,104 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21">
-        <v>0.7641</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -823,77 +934,72 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
